--- a/SchedulingData/dynamic16/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>218.02</v>
+        <v>256.52</v>
       </c>
       <c r="D2" t="n">
-        <v>274.78</v>
+        <v>350.78</v>
       </c>
       <c r="E2" t="n">
-        <v>13.992</v>
+        <v>10.172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>209.24</v>
+        <v>235.12</v>
       </c>
       <c r="D3" t="n">
-        <v>282.94</v>
+        <v>307.6</v>
       </c>
       <c r="E3" t="n">
-        <v>14.736</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>274.78</v>
+        <v>231.8</v>
       </c>
       <c r="D4" t="n">
-        <v>344.14</v>
+        <v>277.64</v>
       </c>
       <c r="E4" t="n">
-        <v>9.176</v>
+        <v>13.836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>218.22</v>
+        <v>242.86</v>
       </c>
       <c r="D5" t="n">
-        <v>270.62</v>
+        <v>295.5</v>
       </c>
       <c r="E5" t="n">
-        <v>12.608</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>219.04</v>
+        <v>350.78</v>
       </c>
       <c r="D6" t="n">
-        <v>285.06</v>
+        <v>406.28</v>
       </c>
       <c r="E6" t="n">
-        <v>10.164</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="7">
@@ -561,98 +561,98 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>270.62</v>
+        <v>307.6</v>
       </c>
       <c r="D7" t="n">
-        <v>332.28</v>
+        <v>364.8</v>
       </c>
       <c r="E7" t="n">
-        <v>9.571999999999999</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>332.28</v>
+        <v>202.04</v>
       </c>
       <c r="D8" t="n">
-        <v>406.48</v>
+        <v>278.06</v>
       </c>
       <c r="E8" t="n">
-        <v>6.272</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>225.24</v>
+        <v>227.06</v>
       </c>
       <c r="D9" t="n">
-        <v>276.64</v>
+        <v>289.94</v>
       </c>
       <c r="E9" t="n">
-        <v>12.996</v>
+        <v>12.656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>282.94</v>
+        <v>278.06</v>
       </c>
       <c r="D10" t="n">
-        <v>346.4</v>
+        <v>338.98</v>
       </c>
       <c r="E10" t="n">
-        <v>11.98</v>
+        <v>5.932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>205.18</v>
+        <v>277.64</v>
       </c>
       <c r="D11" t="n">
-        <v>260.38</v>
+        <v>338.64</v>
       </c>
       <c r="E11" t="n">
-        <v>11.632</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,108 +660,108 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>276.64</v>
+        <v>338.64</v>
       </c>
       <c r="D12" t="n">
-        <v>331.06</v>
+        <v>412.86</v>
       </c>
       <c r="E12" t="n">
-        <v>8.683999999999999</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>260.38</v>
+        <v>295.5</v>
       </c>
       <c r="D13" t="n">
-        <v>322.82</v>
+        <v>356.6</v>
       </c>
       <c r="E13" t="n">
-        <v>8.507999999999999</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>322.82</v>
+        <v>356.6</v>
       </c>
       <c r="D14" t="n">
-        <v>373</v>
+        <v>411.9</v>
       </c>
       <c r="E14" t="n">
-        <v>4.62</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>285.06</v>
+        <v>412.86</v>
       </c>
       <c r="D15" t="n">
-        <v>326.86</v>
+        <v>466.78</v>
       </c>
       <c r="E15" t="n">
-        <v>6.624</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331.06</v>
+        <v>364.8</v>
       </c>
       <c r="D16" t="n">
-        <v>403.8</v>
+        <v>434.1</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>344.14</v>
+        <v>434.1</v>
       </c>
       <c r="D17" t="n">
-        <v>410.54</v>
+        <v>498.2</v>
       </c>
       <c r="E17" t="n">
-        <v>6.136</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
@@ -770,98 +770,98 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>406.48</v>
+        <v>498.2</v>
       </c>
       <c r="D18" t="n">
-        <v>473.48</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>2.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>326.86</v>
+        <v>289.94</v>
       </c>
       <c r="D19" t="n">
-        <v>397.68</v>
+        <v>364.3</v>
       </c>
       <c r="E19" t="n">
-        <v>2.152</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>410.54</v>
+        <v>338.98</v>
       </c>
       <c r="D20" t="n">
-        <v>464.5</v>
+        <v>393.88</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88</v>
+        <v>2.552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464.5</v>
+        <v>406.28</v>
       </c>
       <c r="D21" t="n">
-        <v>537.64</v>
+        <v>461.36</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>2.364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>373</v>
+        <v>411.9</v>
       </c>
       <c r="D22" t="n">
-        <v>439</v>
+        <v>480.88</v>
       </c>
       <c r="E22" t="n">
-        <v>0.14</v>
+        <v>1.432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>439</v>
+        <v>480.88</v>
       </c>
       <c r="D23" t="n">
-        <v>535.12</v>
+        <v>559.8200000000001</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -880,151 +880,151 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>346.4</v>
+        <v>461.36</v>
       </c>
       <c r="D24" t="n">
-        <v>402.04</v>
+        <v>533.4299999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>9.016</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>402.04</v>
+        <v>533.4299999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>450.86</v>
+        <v>586.83</v>
       </c>
       <c r="E25" t="n">
-        <v>6.244</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>403.8</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>463.68</v>
+        <v>652.5599999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>2.612</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>535.12</v>
+        <v>393.88</v>
       </c>
       <c r="D27" t="n">
-        <v>603.72</v>
+        <v>430.26</v>
       </c>
       <c r="E27" t="n">
-        <v>25.32</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>603.72</v>
+        <v>430.26</v>
       </c>
       <c r="D28" t="n">
-        <v>640.22</v>
+        <v>507.07</v>
       </c>
       <c r="E28" t="n">
-        <v>22.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450.86</v>
+        <v>364.3</v>
       </c>
       <c r="D29" t="n">
-        <v>511.36</v>
+        <v>429.7</v>
       </c>
       <c r="E29" t="n">
-        <v>1.824</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>511.36</v>
+        <v>507.07</v>
       </c>
       <c r="D30" t="n">
-        <v>599.3099999999999</v>
+        <v>555.37</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>463.68</v>
+        <v>466.78</v>
       </c>
       <c r="D31" t="n">
-        <v>535.26</v>
+        <v>543.9400000000001</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1032,59 +1032,59 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>535.26</v>
+        <v>543.9400000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>583.5599999999999</v>
+        <v>607.1799999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>26.36</v>
+        <v>27.316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>473.48</v>
+        <v>555.37</v>
       </c>
       <c r="D33" t="n">
-        <v>535.14</v>
+        <v>617.87</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>535.14</v>
+        <v>607.1799999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>605.04</v>
+        <v>667.08</v>
       </c>
       <c r="E34" t="n">
-        <v>27.14</v>
+        <v>23.936</v>
       </c>
     </row>
     <row r="35">
@@ -1093,33 +1093,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>537.64</v>
+        <v>429.7</v>
       </c>
       <c r="D35" t="n">
-        <v>598.14</v>
+        <v>471.36</v>
       </c>
       <c r="E35" t="n">
-        <v>26.62</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>397.68</v>
+        <v>471.36</v>
       </c>
       <c r="D36" t="n">
-        <v>460.38</v>
+        <v>570.95</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
@@ -1127,249 +1127,192 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>460.38</v>
+        <v>586.83</v>
       </c>
       <c r="D37" t="n">
-        <v>514.1799999999999</v>
+        <v>658.03</v>
       </c>
       <c r="E37" t="n">
-        <v>25.32</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>605.04</v>
+        <v>570.95</v>
       </c>
       <c r="D38" t="n">
-        <v>657.54</v>
+        <v>657.8099999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>24.5</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>514.1799999999999</v>
+        <v>559.8200000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>570.96</v>
+        <v>632.58</v>
       </c>
       <c r="E39" t="n">
-        <v>22.252</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>598.14</v>
+        <v>632.58</v>
       </c>
       <c r="D40" t="n">
-        <v>649.48</v>
+        <v>699.08</v>
       </c>
       <c r="E40" t="n">
-        <v>23.596</v>
+        <v>23.324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>599.3099999999999</v>
+        <v>658.03</v>
       </c>
       <c r="D41" t="n">
-        <v>638.41</v>
+        <v>690.53</v>
       </c>
       <c r="E41" t="n">
-        <v>27.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>649.48</v>
+        <v>617.87</v>
       </c>
       <c r="D42" t="n">
-        <v>733.5599999999999</v>
+        <v>659.85</v>
       </c>
       <c r="E42" t="n">
-        <v>19.788</v>
+        <v>20.652</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>570.96</v>
+        <v>652.5599999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>633.36</v>
+        <v>706.2</v>
       </c>
       <c r="E43" t="n">
-        <v>19.612</v>
+        <v>22.656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>583.5599999999999</v>
+        <v>667.08</v>
       </c>
       <c r="D44" t="n">
-        <v>646.1799999999999</v>
+        <v>725.1799999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>22.708</v>
+        <v>19.256</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>733.5599999999999</v>
+        <v>659.85</v>
       </c>
       <c r="D45" t="n">
-        <v>780.86</v>
+        <v>708.25</v>
       </c>
       <c r="E45" t="n">
-        <v>17.668</v>
+        <v>17.932</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>638.41</v>
+        <v>708.25</v>
       </c>
       <c r="D46" t="n">
-        <v>696.83</v>
+        <v>747.11</v>
       </c>
       <c r="E46" t="n">
-        <v>24.068</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pond42</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>696.83</v>
-      </c>
-      <c r="D47" t="n">
-        <v>768.99</v>
-      </c>
-      <c r="E47" t="n">
-        <v>20.932</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond8</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>657.54</v>
-      </c>
-      <c r="D48" t="n">
-        <v>744.54</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond15</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>640.22</v>
-      </c>
-      <c r="D49" t="n">
-        <v>686.7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.292</v>
+        <v>15.176</v>
       </c>
     </row>
   </sheetData>
